--- a/Civilworks cost/Fund Statements.xlsx
+++ b/Civilworks cost/Fund Statements.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fund_Statements_BDT" sheetId="2" r:id="rId1"/>
     <sheet name="Fund_Statements_Yen" sheetId="5" r:id="rId2"/>
-    <sheet name="RPA Recieved" sheetId="3" r:id="rId3"/>
-    <sheet name="DPA_Recieved" sheetId="4" r:id="rId4"/>
+    <sheet name="Fund_Statements_BDT_Interim" sheetId="6" r:id="rId3"/>
+    <sheet name="RPA Recieved" sheetId="3" r:id="rId4"/>
+    <sheet name="DPA_Recieved" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="36">
   <si>
     <t>RPA</t>
   </si>
@@ -87,9 +88,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>Amount(Jpy)</t>
-  </si>
-  <si>
     <t>Amount(BDT)</t>
   </si>
   <si>
@@ -108,16 +106,41 @@
     <t>Payement</t>
   </si>
   <si>
-    <t>DPA Statements</t>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>RPA Rate</t>
+  </si>
+  <si>
+    <t>DPA Rate</t>
+  </si>
+  <si>
+    <t>Taka</t>
+  </si>
+  <si>
+    <t>Yen</t>
+  </si>
+  <si>
+    <t>Bangladesh Bank RPA Statements</t>
+  </si>
+  <si>
+    <t>Bangladesh Bank  DPA Statements</t>
+  </si>
+  <si>
+    <t>RPA Received But Not Transferred From BB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -207,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -251,6 +274,12 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -260,6 +289,28 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,17 +594,17 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -561,7 +612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -572,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -591,7 +642,7 @@
         <v>0.77739999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -600,7 +651,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -613,96 +664,96 @@
         <v>6123088.0499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -716,20 +767,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -737,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -748,15 +803,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="4">
-        <v>86840760.079999998</v>
+        <v>112838813.99784897</v>
       </c>
       <c r="C3" s="4">
-        <v>6123088.0499999998</v>
+        <v>7876368</v>
       </c>
       <c r="E3" s="2">
         <f>0.7754</f>
@@ -766,119 +821,217 @@
         <f>0.7774</f>
         <v>0.77739999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="32">
+        <v>7876368</v>
+      </c>
+      <c r="H3">
+        <f>C3/G3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>108014546.93000001</v>
+        <v>140351528.00215104</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4">
         <f>SUM(B3:B4)</f>
-        <v>194855307.00999999</v>
+        <v>253190342</v>
       </c>
       <c r="C5" s="4">
         <f>SUM(C3:C4)</f>
-        <v>6123088.0499999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7876368</v>
+      </c>
+      <c r="F5">
+        <f>B3/$F$3</f>
+        <v>145148976.0713262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>1365867325</v>
+      </c>
+      <c r="C6" s="4">
+        <v>58165719</v>
+      </c>
+      <c r="F6">
+        <f>B4/$F$3</f>
+        <v>180539655.26389381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="4">
+        <v>1040000000</v>
+      </c>
       <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>253190342</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f>B5/F7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <f>SUM(B3:B8)</f>
+        <v>2912248009</v>
+      </c>
+      <c r="C9" s="4">
+        <f>SUM(C5:C6)</f>
+        <v>66042087</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.77739999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.76959999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="33">
+        <f>B3/F11</f>
+        <v>146620080.55853558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="33">
+        <f>B4/F11</f>
+        <v>182369449.06724408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="24">
+        <v>57745542</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <f>SUM(H15:H16)</f>
+        <v>194855307.00999999</v>
+      </c>
+      <c r="H15" s="8">
+        <v>86840760.079999998</v>
+      </c>
+      <c r="I15" s="8">
+        <f>H15/$F$17</f>
+        <v>112838813.99784897</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="24">
+        <f>SUM(C11:C15)</f>
+        <v>57745542</v>
+      </c>
+      <c r="F16" s="4">
+        <v>253190342</v>
+      </c>
+      <c r="H16" s="8">
+        <v>108014546.93000001</v>
+      </c>
+      <c r="I16" s="8">
+        <f>H16/$F$17</f>
+        <v>140351528.00215104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="24">
+        <f>C9-C16</f>
+        <v>8296545</v>
+      </c>
+      <c r="F17" s="2">
+        <f>F15/F16</f>
+        <v>0.76960007822889231</v>
+      </c>
+      <c r="I17" s="8">
+        <f>I15+I16</f>
+        <v>253190342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -887,85 +1040,272 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="9">
-        <v>150000000</v>
-      </c>
-      <c r="C2" s="9">
-        <v>13596577.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
-        <v>200000000</v>
-      </c>
-      <c r="C3" s="9">
-        <v>286727.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
-        <v>90000000</v>
-      </c>
-      <c r="C4" s="9">
-        <v>142445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
-        <v>300000000</v>
-      </c>
-      <c r="C5" s="9">
-        <v>10125431.67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
-        <v>300000000</v>
-      </c>
-      <c r="C6" s="9">
-        <v>2119360.11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
-        <f>SUM(B2:B6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4">
+        <v>252094875.53999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7876368</v>
+      </c>
+      <c r="E3" s="2">
+        <f>0.7754</f>
+        <v>0.77539999999999998</v>
+      </c>
+      <c r="F3" s="2">
+        <f>0.7774</f>
+        <v>0.77739999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1095466.46</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUM(B3:B4)</f>
+        <v>253190342</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUM(C3:C4)</f>
+        <v>7876368</v>
+      </c>
+      <c r="E5">
+        <v>253190342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4">
         <v>1040000000</v>
       </c>
-      <c r="C7" s="9">
-        <v>13338787.25</v>
-      </c>
+      <c r="C6" s="4">
+        <v>45218029.950599998</v>
+      </c>
+      <c r="E6" s="9">
+        <f>E5-B4</f>
+        <v>252094875.53999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4">
+        <v>36449982.264200002</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="E7" s="9"/>
+      <c r="F7">
+        <v>36449982.264200002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
+        <v>258643164.21000001</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5110239.4800000004</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="E9" s="8">
+        <v>47007973</v>
+      </c>
+      <c r="F9" s="8">
+        <f>E9*E3</f>
+        <v>36449982.264200002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <f>SUM(B5:B9)</f>
+        <v>1593393727.9542</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM(C5:C9)</f>
+        <v>53094397.950599998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
+        <f>C6*0.7774</f>
+        <v>35152496.483596437</v>
+      </c>
+      <c r="F11" s="4">
+        <v>58165719</v>
+      </c>
+      <c r="G11" s="8">
+        <f>F11*$F$3</f>
+        <v>45218029.950599998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="24">
+        <v>1100000000</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="E12">
+        <v>45218029.950599998</v>
+      </c>
+      <c r="F12" s="8">
+        <v>57745542</v>
+      </c>
+      <c r="G12" s="8">
+        <f>F12*$F$3</f>
+        <v>44891384.3508</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24">
+        <v>4515094.93</v>
+      </c>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24">
+        <v>792685.93</v>
+      </c>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="24">
+        <v>44891384.3508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24">
+        <f>SUM(B12:B16)</f>
+        <v>1105307780.8600001</v>
+      </c>
+      <c r="C17" s="24">
+        <f>SUM(C12:C16)</f>
+        <v>44891384.3508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24">
+        <f>B10-B17</f>
+        <v>488085947.0941999</v>
+      </c>
+      <c r="C18" s="24">
+        <f>C10-C17</f>
+        <v>8203013.5997999981</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="24">
+        <v>288544857.80419999</v>
+      </c>
+      <c r="C19" s="24">
+        <v>8203013.5997999981</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="24">
+        <v>199541089.28999999</v>
+      </c>
+      <c r="C20" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -974,84 +1314,353 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="18">
+        <v>253190342</v>
+      </c>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>43817</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18">
+        <v>193448543</v>
+      </c>
+      <c r="E5" s="18">
+        <v>150000000</v>
+      </c>
+      <c r="F5" s="18">
+        <f>F4+B5-D5</f>
+        <v>59741799</v>
+      </c>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
+        <v>43843</v>
+      </c>
+      <c r="B6" s="18">
+        <v>322067844</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="18">
+        <f t="shared" ref="F6:F17" si="0">F5+B6-D6</f>
+        <v>381809643</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>43884</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18">
+        <v>262743037</v>
+      </c>
+      <c r="E7" s="18">
+        <v>200000000</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="shared" si="0"/>
+        <v>119066606</v>
+      </c>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>43901</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1043799481</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="18">
+        <f t="shared" si="0"/>
+        <v>1162866087</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>43902</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="18">
+        <v>110782866</v>
+      </c>
+      <c r="E9" s="18">
+        <v>90000000</v>
+      </c>
+      <c r="F9" s="18">
+        <f t="shared" si="0"/>
+        <v>1052083221</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>43955</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="18">
+        <v>376931775</v>
+      </c>
+      <c r="E10" s="18">
+        <v>300000000</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="shared" si="0"/>
+        <v>675151446</v>
+      </c>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>43970</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="18">
+        <v>374953131</v>
+      </c>
+      <c r="E11" s="18">
+        <v>300000000</v>
+      </c>
+      <c r="F11" s="18">
+        <f t="shared" si="0"/>
+        <v>300198315</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="8">
+        <f>SUM(B4:B11)</f>
+        <v>1365867325</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <f>SUM(D4:D11)</f>
+        <v>1318859352</v>
+      </c>
+      <c r="E12" s="9">
+        <f>SUM(E4:E11)</f>
+        <v>1040000000</v>
+      </c>
+      <c r="F12" s="31"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9">
+        <f>B12-D12</f>
+        <v>47007973</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="10"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="10">
+      <c r="F4" s="18">
         <v>7876368</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>43696</v>
       </c>
@@ -1067,7 +1676,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>43711</v>
       </c>
@@ -1083,7 +1692,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>43738</v>
       </c>
@@ -1099,7 +1708,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>43748</v>
       </c>
@@ -1115,7 +1724,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>43760</v>
       </c>
@@ -1131,7 +1740,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>43760</v>
       </c>
@@ -1147,7 +1756,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>43800</v>
       </c>
@@ -1163,7 +1772,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>43839</v>
       </c>
@@ -1179,7 +1788,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>43850</v>
       </c>
@@ -1195,7 +1804,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>43873</v>
       </c>
@@ -1211,7 +1820,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>43873</v>
       </c>
@@ -1227,7 +1836,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>43964</v>
       </c>
@@ -1243,7 +1852,7 @@
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>43982</v>
       </c>
@@ -1259,7 +1868,7 @@
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>44003</v>
       </c>
@@ -1275,7 +1884,7 @@
       </c>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>44007</v>
       </c>
@@ -1291,14 +1900,14 @@
       </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="9">
         <f>SUM(B5:B19)</f>
         <v>58165719</v>
       </c>
       <c r="D20" s="9">
-        <f>SUM(D19)</f>
-        <v>7006143</v>
+        <f>SUM(D5:D19)</f>
+        <v>57745542</v>
       </c>
       <c r="F20" s="8"/>
     </row>

--- a/Civilworks cost/Fund Statements.xlsx
+++ b/Civilworks cost/Fund Statements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Fund_Statements_BDT" sheetId="2" r:id="rId1"/>
@@ -140,7 +140,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -230,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,19 +277,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -298,19 +302,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,14 +600,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -623,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -642,7 +645,7 @@
         <v>0.77739999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -651,7 +654,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -664,96 +667,96 @@
         <v>6123088.0499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -769,22 +772,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -803,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -812,6 +816,10 @@
       </c>
       <c r="C3" s="4">
         <v>7876368</v>
+      </c>
+      <c r="D3">
+        <f>C3*0.774</f>
+        <v>6096308.8320000004</v>
       </c>
       <c r="E3" s="2">
         <f>0.7754</f>
@@ -821,7 +829,7 @@
         <f>0.7774</f>
         <v>0.77739999999999998</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="26">
         <v>7876368</v>
       </c>
       <c r="H3">
@@ -829,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,7 +846,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -855,7 +863,7 @@
         <v>145148976.0713262</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -870,7 +878,7 @@
         <v>180539655.26389381</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -883,7 +891,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -894,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -907,7 +915,7 @@
         <v>66042087</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -918,7 +926,7 @@
         <v>0.77739999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -931,34 +939,34 @@
         <v>0.76959999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="F12" s="33">
+      <c r="F12" s="27">
         <f>B3/F11</f>
         <v>146620080.55853558</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="F13" s="33">
+      <c r="F13" s="27">
         <f>B4/F11</f>
         <v>182369449.06724408</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="24">
+      <c r="C14" s="20">
         <v>57745542</v>
       </c>
       <c r="H14" t="s">
@@ -968,7 +976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -986,12 +994,12 @@
         <v>112838813.99784897</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="24">
+      <c r="C16" s="20">
         <f>SUM(C11:C15)</f>
         <v>57745542</v>
       </c>
@@ -1006,12 +1014,12 @@
         <v>140351528.00215104</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="24">
+      <c r="C17" s="20">
         <f>C9-C16</f>
         <v>8296545</v>
       </c>
@@ -1024,14 +1032,14 @@
         <v>253190342</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1048,21 +1056,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1108,7 @@
         <v>0.77739999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1117,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>253190342</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>252094875.53999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1153,7 +1161,7 @@
         <v>36449982.264200002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1170,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1186,7 @@
         <v>36449982.264200002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>53094397.950599998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1207,11 +1215,11 @@
         <v>45218029.950599998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>1100000000</v>
       </c>
       <c r="C12" s="7"/>
@@ -1226,83 +1234,83 @@
         <v>44891384.3508</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="20">
         <v>4515094.93</v>
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="20">
         <v>792685.93</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="24">
+      <c r="C15" s="20">
         <v>44891384.3508</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="20">
         <f>SUM(B12:B16)</f>
         <v>1105307780.8600001</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="20">
         <f>SUM(C12:C16)</f>
         <v>44891384.3508</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="20">
         <f>B10-B17</f>
         <v>488085947.0941999</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="20">
         <f>C10-C17</f>
         <v>8203013.5997999981</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="20">
         <v>288544857.80419999</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="20">
         <v>8203013.5997999981</v>
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="20">
         <v>199541089.28999999</v>
       </c>
       <c r="C20" s="7"/>
@@ -1317,50 +1325,49 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
       <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
@@ -1376,25 +1383,25 @@
       <c r="F3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="18">
         <v>253190342</v>
       </c>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>43817</v>
       </c>
       <c r="B5" s="18"/>
@@ -1409,10 +1416,10 @@
         <f>F4+B5-D5</f>
         <v>59741799</v>
       </c>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
         <v>43843</v>
       </c>
       <c r="B6" s="18">
@@ -1420,15 +1427,15 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="30"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="18">
-        <f t="shared" ref="F6:F17" si="0">F5+B6-D6</f>
+        <f t="shared" ref="F6:F11" si="0">F5+B6-D6</f>
         <v>381809643</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>43884</v>
       </c>
       <c r="B7" s="18"/>
@@ -1443,30 +1450,30 @@
         <f t="shared" si="0"/>
         <v>119066606</v>
       </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>43901</v>
       </c>
       <c r="B8" s="18">
         <v>1043799481</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="30"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>1162866087</v>
       </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>43902</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="18">
         <v>110782866</v>
       </c>
@@ -1477,14 +1484,14 @@
         <f t="shared" si="0"/>
         <v>1052083221</v>
       </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
         <v>43955</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="18">
         <v>376931775</v>
       </c>
@@ -1495,14 +1502,14 @@
         <f t="shared" si="0"/>
         <v>675151446</v>
       </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
         <v>43970</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="18">
         <v>374953131</v>
       </c>
@@ -1513,10 +1520,10 @@
         <f t="shared" si="0"/>
         <v>300198315</v>
       </c>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
       <c r="B12" s="8">
         <f>SUM(B4:B11)</f>
         <v>1365867325</v>
@@ -1530,42 +1537,42 @@
         <f>SUM(E4:E11)</f>
         <v>1040000000</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="9">
         <f>B12-D12</f>
         <v>47007973</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="31"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="31"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="31"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="31"/>
+      <c r="F16" s="25"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="31"/>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1583,51 +1590,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="G2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1647,7 +1654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1660,7 +1667,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>43696</v>
       </c>
@@ -1676,7 +1683,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43711</v>
       </c>
@@ -1692,7 +1699,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43738</v>
       </c>
@@ -1708,7 +1715,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43748</v>
       </c>
@@ -1724,7 +1731,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43760</v>
       </c>
@@ -1740,7 +1747,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43760</v>
       </c>
@@ -1756,7 +1763,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>43800</v>
       </c>
@@ -1772,7 +1779,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43839</v>
       </c>
@@ -1788,7 +1795,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43850</v>
       </c>
@@ -1804,7 +1811,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>43873</v>
       </c>
@@ -1820,7 +1827,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43873</v>
       </c>
@@ -1836,7 +1843,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43964</v>
       </c>
@@ -1852,7 +1859,7 @@
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43982</v>
       </c>
@@ -1868,7 +1875,7 @@
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>44003</v>
       </c>
@@ -1884,7 +1891,7 @@
       </c>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>44007</v>
       </c>
@@ -1900,7 +1907,7 @@
       </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <f>SUM(B5:B19)</f>
         <v>58165719</v>

--- a/Civilworks cost/Fund Statements.xlsx
+++ b/Civilworks cost/Fund Statements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fund_Statements_BDT" sheetId="2" r:id="rId1"/>
@@ -140,7 +140,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -274,22 +274,23 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -298,19 +299,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,7 +821,7 @@
         <f>0.7774</f>
         <v>0.77739999999999998</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="25">
         <v>7876368</v>
       </c>
       <c r="H3">
@@ -937,7 +937,7 @@
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="F12" s="33">
+      <c r="F12" s="26">
         <f>B3/F11</f>
         <v>146620080.55853558</v>
       </c>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="F13" s="33">
+      <c r="F13" s="26">
         <f>B4/F11</f>
         <v>182369449.06724408</v>
       </c>
@@ -958,7 +958,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="24">
+      <c r="C14" s="19">
         <v>57745542</v>
       </c>
       <c r="H14" t="s">
@@ -991,7 +991,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="24">
+      <c r="C16" s="19">
         <f>SUM(C11:C15)</f>
         <v>57745542</v>
       </c>
@@ -1011,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="7"/>
-      <c r="C17" s="24">
+      <c r="C17" s="19">
         <f>C9-C16</f>
         <v>8296545</v>
       </c>
@@ -1048,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1211,7 +1211,7 @@
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="19">
         <v>1100000000</v>
       </c>
       <c r="C12" s="7"/>
@@ -1230,7 +1230,7 @@
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="19">
         <v>4515094.93</v>
       </c>
       <c r="C13" s="7"/>
@@ -1239,7 +1239,7 @@
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="19">
         <v>792685.93</v>
       </c>
       <c r="C14" s="7"/>
@@ -1249,7 +1249,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7"/>
-      <c r="C15" s="24">
+      <c r="C15" s="19">
         <v>44891384.3508</v>
       </c>
     </row>
@@ -1264,11 +1264,11 @@
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="19">
         <f>SUM(B12:B16)</f>
         <v>1105307780.8600001</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="19">
         <f>SUM(C12:C16)</f>
         <v>44891384.3508</v>
       </c>
@@ -1277,11 +1277,11 @@
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="19">
         <f>B10-B17</f>
         <v>488085947.0941999</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="19">
         <f>C10-C17</f>
         <v>8203013.5997999981</v>
       </c>
@@ -1290,10 +1290,10 @@
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="19">
         <v>288544857.80419999</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="19">
         <v>8203013.5997999981</v>
       </c>
       <c r="E19" s="8"/>
@@ -1302,7 +1302,7 @@
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="19">
         <v>199541089.28999999</v>
       </c>
       <c r="C20" s="7"/>
@@ -1316,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -1332,35 +1332,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="17" t="s">
         <v>24</v>
       </c>
@@ -1387,14 +1387,14 @@
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="17"/>
-      <c r="E4" s="27"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="18">
         <v>253190342</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29">
+      <c r="A5" s="22">
         <v>43817</v>
       </c>
       <c r="B5" s="18"/>
@@ -1409,10 +1409,10 @@
         <f>F4+B5-D5</f>
         <v>59741799</v>
       </c>
-      <c r="G5" s="30"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29">
+      <c r="A6" s="22">
         <v>43843</v>
       </c>
       <c r="B6" s="18">
@@ -1420,15 +1420,15 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="30"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="18">
-        <f t="shared" ref="F6:F17" si="0">F5+B6-D6</f>
+        <f t="shared" ref="F6:F11" si="0">F5+B6-D6</f>
         <v>381809643</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+      <c r="A7" s="22">
         <v>43884</v>
       </c>
       <c r="B7" s="18"/>
@@ -1446,15 +1446,15 @@
       <c r="G7" s="8"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+      <c r="A8" s="22">
         <v>43901</v>
       </c>
       <c r="B8" s="18">
         <v>1043799481</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="30"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="18">
         <f t="shared" si="0"/>
         <v>1162866087</v>
@@ -1462,11 +1462,11 @@
       <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+      <c r="A9" s="22">
         <v>43902</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="18">
         <v>110782866</v>
       </c>
@@ -1480,11 +1480,11 @@
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+      <c r="A10" s="22">
         <v>43955</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="18">
         <v>376931775</v>
       </c>
@@ -1498,11 +1498,11 @@
       <c r="G10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+      <c r="A11" s="22">
         <v>43970</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="18">
         <v>374953131</v>
       </c>
@@ -1516,7 +1516,7 @@
       <c r="G11" s="8"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="8">
         <f>SUM(B4:B11)</f>
         <v>1365867325</v>
@@ -1530,7 +1530,7 @@
         <f>SUM(E4:E11)</f>
         <v>1040000000</v>
       </c>
-      <c r="F12" s="31"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1540,32 +1540,32 @@
         <v>47007973</v>
       </c>
       <c r="E13" s="8"/>
-      <c r="F13" s="31"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
-      <c r="F14" s="31"/>
+      <c r="F14" s="24"/>
       <c r="G14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="31"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="31"/>
+      <c r="F16" s="24"/>
       <c r="G16" s="8"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="31"/>
+      <c r="F17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1599,35 +1599,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19" t="s">
+      <c r="E2" s="31"/>
+      <c r="F2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
+      <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>

--- a/Civilworks cost/Fund Statements.xlsx
+++ b/Civilworks cost/Fund Statements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Fund_Statements_BDT" sheetId="2" r:id="rId1"/>
@@ -137,10 +137,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -230,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -309,6 +310,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -597,14 +601,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -623,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -642,7 +646,7 @@
         <v>0.77739999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -651,7 +655,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -664,96 +668,96 @@
         <v>6123088.0499999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -773,18 +777,18 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -803,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -829,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,7 +842,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -855,7 +859,7 @@
         <v>145148976.0713262</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -870,7 +874,7 @@
         <v>180539655.26389381</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -883,7 +887,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -894,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -907,7 +911,7 @@
         <v>66042087</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -918,7 +922,7 @@
         <v>0.77739999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -931,7 +935,7 @@
         <v>0.76959999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
@@ -942,7 +946,7 @@
         <v>146620080.55853558</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -953,7 +957,7 @@
         <v>182369449.06724408</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
@@ -968,7 +972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -986,7 +990,7 @@
         <v>112838813.99784897</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1010,7 @@
         <v>140351528.00215104</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
@@ -1024,14 +1028,14 @@
         <v>253190342</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1052,17 +1056,17 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1081,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1100,7 +1104,7 @@
         <v>0.77739999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1109,7 +1113,7 @@
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1125,7 +1129,7 @@
         <v>253190342</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -1140,7 +1144,7 @@
         <v>252094875.53999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1153,7 +1157,7 @@
         <v>36449982.264200002</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1162,7 +1166,7 @@
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1178,7 +1182,7 @@
         <v>36449982.264200002</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1195,7 @@
         <v>53094397.950599998</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1207,7 +1211,7 @@
         <v>45218029.950599998</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>44891384.3508</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -1235,7 +1239,7 @@
       </c>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -1244,7 +1248,7 @@
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -1253,14 +1257,14 @@
         <v>44891384.3508</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
@@ -1273,7 +1277,7 @@
         <v>44891384.3508</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>8203013.5997999981</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1298,7 +1302,7 @@
       </c>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -1317,21 +1321,20 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -1342,7 +1345,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>20</v>
       </c>
@@ -1359,7 +1362,7 @@
       </c>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="29"/>
       <c r="B3" s="17" t="s">
         <v>24</v>
@@ -1380,7 +1383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>28</v>
       </c>
@@ -1393,7 +1396,7 @@
       </c>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>43817</v>
       </c>
@@ -1411,7 +1414,7 @@
       </c>
       <c r="G5" s="23"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>43843</v>
       </c>
@@ -1427,7 +1430,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>43884</v>
       </c>
@@ -1445,7 +1448,7 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>43901</v>
       </c>
@@ -1461,7 +1464,7 @@
       </c>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>43902</v>
       </c>
@@ -1479,7 +1482,7 @@
       </c>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>43955</v>
       </c>
@@ -1497,7 +1500,7 @@
       </c>
       <c r="G10" s="8"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>43970</v>
       </c>
@@ -1515,7 +1518,7 @@
       </c>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="8">
         <f>SUM(B4:B11)</f>
@@ -1533,7 +1536,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="8"/>
       <c r="D13" s="9">
         <f>B12-D12</f>
@@ -1543,28 +1546,28 @@
       <c r="F13" s="24"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
       <c r="F14" s="24"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
       <c r="F15" s="24"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="24"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="24"/>
     </row>
   </sheetData>
@@ -1587,18 +1590,18 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="19" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.44140625" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
@@ -1609,7 +1612,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
@@ -1626,7 +1629,7 @@
       </c>
       <c r="G2" s="30"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="33"/>
       <c r="B3" s="1" t="s">
         <v>24</v>
@@ -1647,7 +1650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
@@ -1660,7 +1663,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>43696</v>
       </c>
@@ -1676,7 +1679,7 @@
       </c>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>43711</v>
       </c>
@@ -1692,7 +1695,7 @@
       </c>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>43738</v>
       </c>
@@ -1708,7 +1711,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>43748</v>
       </c>
@@ -1724,7 +1727,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>43760</v>
       </c>
@@ -1740,7 +1743,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>43760</v>
       </c>
@@ -1756,7 +1759,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>43800</v>
       </c>
@@ -1772,7 +1775,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>43839</v>
       </c>
@@ -1788,7 +1791,7 @@
       </c>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>43850</v>
       </c>
@@ -1804,7 +1807,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>43873</v>
       </c>
@@ -1820,7 +1823,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>43873</v>
       </c>
@@ -1836,7 +1839,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>43964</v>
       </c>
@@ -1852,7 +1855,7 @@
       </c>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>43982</v>
       </c>
@@ -1868,7 +1871,7 @@
       </c>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>44003</v>
       </c>
@@ -1884,7 +1887,7 @@
       </c>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>44007</v>
       </c>
@@ -1900,7 +1903,7 @@
       </c>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <f>SUM(B5:B19)</f>
         <v>58165719</v>
